--- a/js/Jobs-Grid.xlsx
+++ b/js/Jobs-Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="30440" windowHeight="20100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15680" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="312">
   <si>
     <t>Spotlight</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Short description as it should appear in the page</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Air_Traffic_Controller.html</t>
-  </si>
-  <si>
     <t>Air Traffic Controller</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Spokane International Airport</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Animal_Husbandry_Professional.html</t>
-  </si>
-  <si>
     <t>Animal Husbandry Professional</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Shifts typically start early from 6am until 4pm, Monday through Friday</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Architectural_Drafter.html</t>
-  </si>
-  <si>
     <t>Architectural Drafter</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>NAC Architecture,Integrus Architecture,Coffman Engineers</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/careers/Bank_Teller.html</t>
-  </si>
-  <si>
     <t>Bank Teller</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
   </si>
   <si>
     <t>STCU,Numerica,Washington Trust,Bank of America,Wells Fargo</t>
-  </si>
-  <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Bus_Driver.html</t>
   </si>
   <si>
     <t>Bus Driver</t>
@@ -235,9 +220,6 @@
 </t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Carpenter.html</t>
-  </si>
-  <si>
     <t>Carpenter</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t>Typical shifts are 10 hours long but times vary. Shifts are usually 5 days a week but are not limited to weekdays.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Civil_Engineer.html</t>
-  </si>
-  <si>
     <t>Civil Engineer</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>spot</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/CNC_Operator.html</t>
-  </si>
-  <si>
     <t>CNC Operator</t>
   </si>
   <si>
@@ -307,9 +283,6 @@
     <t>Spokane Community College,North Idaho College</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Computer_User_Support_Specialists.html</t>
-  </si>
-  <si>
     <t>Computer User Support Specialist</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>Engie Insight,Spokane Public Schools,Best Buy,Apple</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Construction_Manager.html</t>
-  </si>
-  <si>
     <t>Construction Manager</t>
   </si>
   <si>
@@ -341,9 +311,6 @@
   </si>
   <si>
     <t>Lydig Construction,Garco Construction,Bouten Construction,Greenstone</t>
-  </si>
-  <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Dental_Assistant.html</t>
   </si>
   <si>
     <t>Dental Assistant</t>
@@ -381,9 +348,6 @@
     <t>http://scc.spokane.edu/What-to-Study/Healthcare/Dental/Dental-Assisting,https://carrington.edu/degrees/dental-assisting/</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Diesel_Engine_Mechanic.html</t>
-  </si>
-  <si>
     <t>Diesel Engine Mechanic</t>
   </si>
   <si>
@@ -399,9 +363,6 @@
     <t>Waste Management,MV Transportation,Ryder System,Papé</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Electrical_Assembler.html</t>
-  </si>
-  <si>
     <t>Electrical Assembler</t>
   </si>
   <si>
@@ -423,18 +384,12 @@
     <t>MacKay Manufacturing,Itron, Inc.,Triumph Composite Systems,Itronix Corporation,Honeywell Electronic Materials,Jubilant HollisterStier,Travis Pattern &amp; Foundry Inc,Cascade NW Siding&amp; Windows LLC,Spokane Steel Foundry Co,Wagstaff Inc,CPM Development Corporation</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Electrician.html</t>
-  </si>
-  <si>
     <t>Electrician</t>
   </si>
   <si>
     <t>Electricians are tradesman specializing in electrical wiring of buildings, machines, and equipment. Electricians are divided into two categories: linemen, who work with higher voltages, and wiremen, who work with the lower voltages. Wiremen generally choose one of five specialties: commercial, residential, light industrial, industrial, and low-voltage.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Fraud_Prevention_Specialist.html</t>
-  </si>
-  <si>
     <t>Fraud Prevention Specialist</t>
   </si>
   <si>
@@ -444,9 +399,6 @@
     <t>A Fraud Prevention Specialist reviews reports and monitors account transactions that are potentially fraudulent. He may get leads from external and internal sources to pinpoint the fraud. It is also the job of the Fraud Prevention Specialist to identify patterns and trends to prevent future frauds.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Home_Health_Aide.html</t>
-  </si>
-  <si>
     <t>Home Health Aide</t>
   </si>
   <si>
@@ -459,9 +411,6 @@
     <t>Family Home Care,Addus Home Care,Beneficial In Home Care,Kindred At Home,Interim Healthcare</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Industrial_Engineer.html</t>
-  </si>
-  <si>
     <t>Industrial Engineer</t>
   </si>
   <si>
@@ -471,9 +420,6 @@
     <t>Industrial engineers find ways to eliminate wastefulness in production processes. They devise efficient systems that integrate workers, machines, materials, information, and energy to make a product or provide a service. Depending on their tasks, industrial engineers work either in offices or the settings they are trying to improve.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Insurance_Sales_Agent.html</t>
-  </si>
-  <si>
     <t>Insurance Sales Agent</t>
   </si>
   <si>
@@ -486,18 +432,12 @@
     <t>Travelers,Liberty Mutual,Farmers,Allstate</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Loan_Officer.html</t>
-  </si>
-  <si>
     <t>Loan Officer</t>
   </si>
   <si>
     <t>Loan officers, also referred to as "mortgage loan originators," are people who work for banks and other financial institutions with the main objective to recommend individual and business loan applications for approval.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Mechanical_Engineer.html</t>
-  </si>
-  <si>
     <t>Mechanical Engineer</t>
   </si>
   <si>
@@ -507,9 +447,6 @@
     <t>Mechanical engineers design, develop, build, and test mechanical and thermal sensors and devices, including tools, engines, and machines. Mechanical engineers ensure that designs are safe, efficient, and reliable, all at a competitive cost.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html</t>
-  </si>
-  <si>
     <t>Nursing Assistant</t>
   </si>
   <si>
@@ -540,9 +477,6 @@
     <t>Typical shifts can be anywhere between 8 and 12 hours. Some "on call" shifts can last as long as 24 hours in some emergency centers. On average, shifts are 3 to 5 days a week depending on length and setting.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Physical_Therapist.html</t>
-  </si>
-  <si>
     <t>Physical Therapist</t>
   </si>
   <si>
@@ -553,9 +487,6 @@
   </si>
   <si>
     <t>St. Luke's Rehab,Rockwood Physical Therapy,Therapeutic Associates,U-District PT</t>
-  </si>
-  <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Practical_Nurse.html</t>
   </si>
   <si>
     <t>Practical Nurse</t>
@@ -571,9 +502,6 @@
     <t>Typical shifts are 8 to 10 hours long but times vary. Shifts are usually 4 or 5 days a week but are not limited to weekdays.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Production_Supervisor.html</t>
-  </si>
-  <si>
     <t>Production Supervisor</t>
   </si>
   <si>
@@ -592,9 +520,6 @@
     <t>Spokane Community College,North Idaho College,University of Idaho,Washington State University</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Quality_Inspection_Supervisor.html</t>
-  </si>
-  <si>
     <t>Quality Inspection Supervisor</t>
   </si>
   <si>
@@ -610,9 +535,6 @@
     <t>HOTSTART,Itron,Exotic Metals</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Registered_Nurse.html</t>
-  </si>
-  <si>
     <t>Registered Nurse</t>
   </si>
   <si>
@@ -622,9 +544,6 @@
     <t>A Registered Nurse is a nurse who has completed a nursing program and met the requirements to obtain a nursing license. Registered nurses are employed in a wide variety of professional settings, and often specialize in a field of practice. They may be responsible for supervising care delivered by other healthcare workers.</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Software_Developer.html</t>
-  </si>
-  <si>
     <t>Software Developer</t>
   </si>
   <si>
@@ -634,9 +553,6 @@
     <t>F5 Networks,Schweitzer Engineering Laboratories,Engie Insight,Next IT,Avista</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Truck_Driver.html</t>
-  </si>
-  <si>
     <t>Truck Driver</t>
   </si>
   <si>
@@ -652,9 +568,6 @@
     <t>Trans-System,TDR Logistics,Reddaway,Schneider National</t>
   </si>
   <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Web_Developer.html</t>
-  </si>
-  <si>
     <t>Web Developer</t>
   </si>
   <si>
@@ -662,9 +575,6 @@
   </si>
   <si>
     <t>Stay Alfred,etailz,Design Spike,Zipline,Gravity Jack</t>
-  </si>
-  <si>
-    <t>https://adamerow.github.io/careerexplorenw/careers/Welder.html</t>
   </si>
   <si>
     <t>Welder</t>
@@ -1088,12 +998,105 @@
   <si>
     <t>Sponsors</t>
   </si>
+  <si>
+    <t>./careers/Air_Traffic_Controller.html</t>
+  </si>
+  <si>
+    <t>./careers/Animal_Husbandry_Professional.html</t>
+  </si>
+  <si>
+    <t>./careers/Architectural_Drafter.html</t>
+  </si>
+  <si>
+    <t>./careers/careers/Bank_Teller.html</t>
+  </si>
+  <si>
+    <t>./careers/Bus_Driver.html</t>
+  </si>
+  <si>
+    <t>./careers/Carpenter.html</t>
+  </si>
+  <si>
+    <t>./careers/Civil_Engineer.html</t>
+  </si>
+  <si>
+    <t>./careers/CNC_Operator.html</t>
+  </si>
+  <si>
+    <t>./careers/Computer_User_Support_Specialists.html</t>
+  </si>
+  <si>
+    <t>./careers/Construction_Manager.html</t>
+  </si>
+  <si>
+    <t>./careers/Dental_Assistant.html</t>
+  </si>
+  <si>
+    <t>./careers/Diesel_Engine_Mechanic.html</t>
+  </si>
+  <si>
+    <t>./careers/Electrical_Assembler.html</t>
+  </si>
+  <si>
+    <t>./careers/Electrician.html</t>
+  </si>
+  <si>
+    <t>./careers/Fraud_Prevention_Specialist.html</t>
+  </si>
+  <si>
+    <t>./careers/Home_Health_Aide.html</t>
+  </si>
+  <si>
+    <t>./careers/Industrial_Engineer.html</t>
+  </si>
+  <si>
+    <t>./careers/Insurance_Sales_Agent.html</t>
+  </si>
+  <si>
+    <t>./careers/Loan_Officer.html</t>
+  </si>
+  <si>
+    <t>./careers/Mechanical_Engineer.html</t>
+  </si>
+  <si>
+    <t>./careers/Nursing_Assistant.html</t>
+  </si>
+  <si>
+    <t>./careers/Physical_Therapist.html</t>
+  </si>
+  <si>
+    <t>./careers/Practical_Nurse.html</t>
+  </si>
+  <si>
+    <t>./careers/Production_Supervisor.html</t>
+  </si>
+  <si>
+    <t>./careers/Quality_Inspection_Supervisor.html</t>
+  </si>
+  <si>
+    <t>./careers/Registered_Nurse.html</t>
+  </si>
+  <si>
+    <t>./careers/Software_Developer.html</t>
+  </si>
+  <si>
+    <t>./careers/Truck_Driver.html</t>
+  </si>
+  <si>
+    <t>./careers/Web_Developer.html</t>
+  </si>
+  <si>
+    <t>./careers/Welder.html</t>
+  </si>
+  <si>
+    <t>./careers/Nurse_Practitioner.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1188,12 +1191,6 @@
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="'Arial'"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -1246,7 +1243,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1257,8 +1254,129 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1350,10 +1468,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1375,7 +1490,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1385,6 +1500,127 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1719,8 +1955,8 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView topLeftCell="R5" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1812,7 +2048,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="25" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="W1" s="25" t="s">
         <v>21</v>
@@ -1829,7 +2065,7 @@
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="105">
       <c r="A2" s="29" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29" t="s">
@@ -1841,7 +2077,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>27</v>
@@ -1878,44 +2114,44 @@
       <c r="T2" s="29"/>
       <c r="U2" s="29"/>
       <c r="V2" s="30" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="21">
         <v>3</v>
@@ -1937,7 +2173,7 @@
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R3" s="21">
         <v>8</v>
@@ -1954,7 +2190,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -1962,26 +2198,26 @@
     <row r="4" spans="1:26" ht="43.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="21">
         <v>1</v>
@@ -2003,7 +2239,7 @@
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R4" s="21">
         <v>10</v>
@@ -2026,26 +2262,26 @@
     <row r="5" spans="1:26" ht="25.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="F5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="21">
         <v>3</v>
@@ -2067,7 +2303,7 @@
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R5" s="21">
         <v>8</v>
@@ -2084,7 +2320,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -2092,26 +2328,26 @@
     <row r="6" spans="1:26" ht="58.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="21">
         <v>1</v>
@@ -2133,7 +2369,7 @@
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R6" s="21">
         <v>8</v>
@@ -2150,7 +2386,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -2158,26 +2394,26 @@
     <row r="7" spans="1:26" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="31" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="21">
         <v>1</v>
@@ -2199,7 +2435,7 @@
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R7" s="21">
         <v>6</v>
@@ -2216,7 +2452,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -2224,26 +2460,26 @@
     <row r="8" spans="1:26" ht="43.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="31" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J8" s="21">
         <v>2</v>
@@ -2265,7 +2501,7 @@
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R8" s="21">
         <v>8</v>
@@ -2288,26 +2524,26 @@
     <row r="9" spans="1:26" ht="43.5" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="31" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J9" s="21">
         <v>4</v>
@@ -2329,7 +2565,7 @@
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="R9" s="21">
         <v>8</v>
@@ -2351,31 +2587,31 @@
     </row>
     <row r="10" spans="1:26" ht="43.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="21">
         <v>3</v>
@@ -2397,7 +2633,7 @@
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R10" s="21">
         <v>10</v>
@@ -2412,42 +2648,42 @@
         <v>22</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="31" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
@@ -2469,7 +2705,7 @@
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R11" s="21">
         <v>8</v>
@@ -2486,7 +2722,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -2494,26 +2730,26 @@
     <row r="12" spans="1:26" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="31" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J12" s="21">
         <v>4</v>
@@ -2535,7 +2771,7 @@
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="R12" s="21">
         <v>10</v>
@@ -2552,38 +2788,38 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="43.5" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J13" s="21">
         <v>2</v>
@@ -2605,7 +2841,7 @@
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="R13" s="21">
         <v>8</v>
@@ -2620,44 +2856,44 @@
         <v>21</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="W13" s="31" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z13" s="31" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="31" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
@@ -2679,7 +2915,7 @@
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="R14" s="21">
         <v>9</v>
@@ -2696,38 +2932,38 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="43.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" s="21">
         <v>1</v>
@@ -2749,7 +2985,7 @@
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R15" s="21">
         <v>10</v>
@@ -2764,13 +3000,13 @@
         <v>10</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="W15" s="31" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -2778,26 +3014,26 @@
     <row r="16" spans="1:26" ht="43.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="31" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J16" s="21">
         <v>2</v>
@@ -2819,7 +3055,7 @@
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="R16" s="21">
         <v>8</v>
@@ -2842,26 +3078,26 @@
     <row r="17" spans="1:26" ht="43.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>136</v>
+        <v>295</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J17" s="21">
         <v>4</v>
@@ -2883,7 +3119,7 @@
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="23" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="R17" s="21">
         <v>8</v>
@@ -2900,7 +3136,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -2908,26 +3144,26 @@
     <row r="18" spans="1:26" ht="43.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="31" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J18" s="21">
         <v>1</v>
@@ -2949,7 +3185,7 @@
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R18" s="21">
         <v>8</v>
@@ -2966,7 +3202,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -2974,26 +3210,26 @@
     <row r="19" spans="1:26" ht="43.5" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="31" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J19" s="21">
         <v>4</v>
@@ -3015,7 +3251,7 @@
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="R19" s="21">
         <v>8</v>
@@ -3038,26 +3274,26 @@
     <row r="20" spans="1:26" ht="43.5" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="31" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20" s="21">
         <v>1</v>
@@ -3079,7 +3315,7 @@
       </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R20" s="21">
         <v>8</v>
@@ -3096,7 +3332,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -3104,26 +3340,26 @@
     <row r="21" spans="1:26" ht="43.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="31" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J21" s="21">
         <v>4</v>
@@ -3145,7 +3381,7 @@
       </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R21" s="21">
         <v>8</v>
@@ -3162,7 +3398,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -3170,26 +3406,26 @@
     <row r="22" spans="1:26" ht="43.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="31" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J22" s="21">
         <v>4</v>
@@ -3211,7 +3447,7 @@
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R22" s="21">
         <v>8</v>
@@ -3234,26 +3470,26 @@
     <row r="23" spans="1:26" ht="43.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="31" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J23" s="21">
         <v>2</v>
@@ -3275,7 +3511,7 @@
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R23" s="21">
         <v>10</v>
@@ -3292,34 +3528,36 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="43.5" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="31" t="s">
+        <v>311</v>
+      </c>
       <c r="C24" s="13" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="J24" s="21">
         <v>5</v>
@@ -3341,7 +3579,7 @@
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="23" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="R24" s="21">
         <v>12</v>
@@ -3356,7 +3594,7 @@
         <v>67</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
@@ -3366,26 +3604,26 @@
     <row r="25" spans="1:26" ht="43.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="31" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="21" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="J25" s="21">
         <v>5</v>
@@ -3407,7 +3645,7 @@
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R25" s="21">
         <v>8</v>
@@ -3424,7 +3662,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -3432,26 +3670,26 @@
     <row r="26" spans="1:26" ht="43.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="31" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J26" s="21">
         <v>2</v>
@@ -3473,7 +3711,7 @@
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="23" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="R26" s="21">
         <v>10</v>
@@ -3490,7 +3728,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
@@ -3498,28 +3736,28 @@
     <row r="27" spans="1:26" ht="43.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="31" t="s">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="J27" s="21">
         <v>1</v>
@@ -3541,7 +3779,7 @@
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R27" s="21">
         <v>10</v>
@@ -3556,44 +3794,44 @@
         <v>33</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="W27" s="31" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" ht="43.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="31" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -3615,7 +3853,7 @@
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R28" s="21">
         <v>10</v>
@@ -3630,13 +3868,13 @@
         <v>18</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="W28" s="31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
@@ -3644,26 +3882,26 @@
     <row r="29" spans="1:26" ht="43.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="31" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J29" s="21">
         <v>4</v>
@@ -3685,7 +3923,7 @@
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="23" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="R29" s="21">
         <v>10</v>
@@ -3702,7 +3940,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
@@ -3710,26 +3948,26 @@
     <row r="30" spans="1:26" ht="43.5" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="31" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J30" s="21">
         <v>4</v>
@@ -3751,7 +3989,7 @@
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R30" s="21">
         <v>8</v>
@@ -3768,7 +4006,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3776,26 +4014,26 @@
     <row r="31" spans="1:26" ht="43.5" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="31" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J31" s="21">
         <v>2</v>
@@ -3817,7 +4055,7 @@
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="23" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="R31" s="21">
         <v>24</v>
@@ -3834,7 +4072,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
@@ -3842,26 +4080,26 @@
     <row r="32" spans="1:26" ht="43.5" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="31" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J32" s="21">
         <v>4</v>
@@ -3883,7 +4121,7 @@
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R32" s="21">
         <v>8</v>
@@ -3900,38 +4138,38 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="43" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J33" s="21">
         <v>2</v>
@@ -3953,7 +4191,7 @@
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R33" s="21">
         <v>10</v>
@@ -3968,56 +4206,57 @@
         <v>31</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="W33" s="31" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://adamerow.github.io/careerexplorenw/careers/Air_Traffic_Controller.html"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://adamerow.github.io/careerexplorenw/careers/Animal_Husbandry_Professional.html"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://adamerow.github.io/careerexplorenw/careers/Architectural_Drafter.html"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://adamerow.github.io/careerexplorenw/careers/careers/Bank_Teller.html"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://adamerow.github.io/careerexplorenw/careers/Bus_Driver.html"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://adamerow.github.io/careerexplorenw/careers/Carpenter.html"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://adamerow.github.io/careerexplorenw/careers/Civil_Engineer.html"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://adamerow.github.io/careerexplorenw/careers/CNC_Operator.html"/>
     <hyperlink ref="W10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://adamerow.github.io/careerexplorenw/careers/Computer_User_Support_Specialists.html"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://adamerow.github.io/careerexplorenw/careers/Construction_Manager.html"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://adamerow.github.io/careerexplorenw/careers/Dental_Assistant.html"/>
     <hyperlink ref="W13" r:id="rId13"/>
     <hyperlink ref="Z13" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15"/>
-    <hyperlink ref="B15" r:id="rId16"/>
+    <hyperlink ref="B14" r:id="rId15" display="https://adamerow.github.io/careerexplorenw/careers/Diesel_Engine_Mechanic.html"/>
+    <hyperlink ref="B15" r:id="rId16" display="https://adamerow.github.io/careerexplorenw/careers/Electrical_Assembler.html"/>
     <hyperlink ref="W15" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="B19" r:id="rId21"/>
-    <hyperlink ref="B20" r:id="rId22"/>
-    <hyperlink ref="B21" r:id="rId23"/>
-    <hyperlink ref="B22" r:id="rId24"/>
-    <hyperlink ref="B23" r:id="rId25"/>
-    <hyperlink ref="B25" r:id="rId26"/>
-    <hyperlink ref="B26" r:id="rId27"/>
-    <hyperlink ref="B27" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId18" display="https://adamerow.github.io/careerexplorenw/careers/Electrician.html"/>
+    <hyperlink ref="B17" r:id="rId19" display="https://adamerow.github.io/careerexplorenw/careers/Fraud_Prevention_Specialist.html"/>
+    <hyperlink ref="B18" r:id="rId20" display="https://adamerow.github.io/careerexplorenw/careers/Home_Health_Aide.html"/>
+    <hyperlink ref="B19" r:id="rId21" display="https://adamerow.github.io/careerexplorenw/careers/Industrial_Engineer.html"/>
+    <hyperlink ref="B20" r:id="rId22" display="https://adamerow.github.io/careerexplorenw/careers/Insurance_Sales_Agent.html"/>
+    <hyperlink ref="B21" r:id="rId23" display="https://adamerow.github.io/careerexplorenw/careers/Loan_Officer.html"/>
+    <hyperlink ref="B22" r:id="rId24" display="https://adamerow.github.io/careerexplorenw/careers/Mechanical_Engineer.html"/>
+    <hyperlink ref="B23" r:id="rId25" display="https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html"/>
+    <hyperlink ref="B25" r:id="rId26" display="https://adamerow.github.io/careerexplorenw/careers/Physical_Therapist.html"/>
+    <hyperlink ref="B26" r:id="rId27" display="https://adamerow.github.io/careerexplorenw/careers/Practical_Nurse.html"/>
+    <hyperlink ref="B27" r:id="rId28" display="https://adamerow.github.io/careerexplorenw/careers/Production_Supervisor.html"/>
     <hyperlink ref="W27" r:id="rId29"/>
-    <hyperlink ref="B28" r:id="rId30"/>
+    <hyperlink ref="B28" r:id="rId30" display="https://adamerow.github.io/careerexplorenw/careers/Quality_Inspection_Supervisor.html"/>
     <hyperlink ref="W28" r:id="rId31"/>
-    <hyperlink ref="B29" r:id="rId32"/>
-    <hyperlink ref="B30" r:id="rId33"/>
-    <hyperlink ref="B31" r:id="rId34"/>
-    <hyperlink ref="B32" r:id="rId35"/>
-    <hyperlink ref="B33" r:id="rId36"/>
+    <hyperlink ref="B29" r:id="rId32" display="https://adamerow.github.io/careerexplorenw/careers/Registered_Nurse.html"/>
+    <hyperlink ref="B30" r:id="rId33" display="https://adamerow.github.io/careerexplorenw/careers/Software_Developer.html"/>
+    <hyperlink ref="B31" r:id="rId34" display="https://adamerow.github.io/careerexplorenw/careers/Truck_Driver.html"/>
+    <hyperlink ref="B32" r:id="rId35" display="https://adamerow.github.io/careerexplorenw/careers/Web_Developer.html"/>
+    <hyperlink ref="B33" r:id="rId36" display="https://adamerow.github.io/careerexplorenw/careers/Welder.html"/>
     <hyperlink ref="W33" r:id="rId37"/>
+    <hyperlink ref="B24" r:id="rId38" display="https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4033,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4052,210 +4291,210 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>220</v>
+        <v>191</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="60">
       <c r="A2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="60">
       <c r="A3" s="13" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A4" s="13" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A5" s="14" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A6" s="14" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A7" s="14" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>302</v>
+        <v>97</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A8" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>303</v>
+        <v>77</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A9" s="14" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>304</v>
+        <v>77</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A10" s="14" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>305</v>
+        <v>77</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="60">
       <c r="A11" s="14" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A12" s="14" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>307</v>
+        <v>97</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A13" s="14" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A15" s="14" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" s="17"/>
     </row>
@@ -4444,196 +4683,196 @@
     <col min="4" max="16384" width="18" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="37" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="38" customFormat="1" ht="45">
-      <c r="A2" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>296</v>
+    <row r="1" spans="1:3" s="36" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="37" customFormat="1" ht="45">
+      <c r="A2" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="12" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>284</v>
+        <v>227</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
       <c r="A4" s="12" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>285</v>
+        <v>228</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>286</v>
+        <v>229</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="12" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>272</v>
+        <v>230</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
       <c r="A7" s="12" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>273</v>
+        <v>231</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="12" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>274</v>
+        <v>232</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="12" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>275</v>
+        <v>233</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="12" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>276</v>
+        <v>234</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="12" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>277</v>
+        <v>235</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" s="12" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>278</v>
+        <v>236</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="12" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>279</v>
+        <v>237</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="12" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>280</v>
+        <v>238</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="12" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>281</v>
+        <v>239</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="12" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>282</v>
+        <v>240</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="12" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>283</v>
+        <v>241</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="C22" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/js/Jobs-Grid.xlsx
+++ b/js/Jobs-Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15680" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -1376,7 +1376,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1430,9 +1430,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1465,12 +1462,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,6 +1479,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -1955,20 +1958,20 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="68.83203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" style="42" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" style="7" customWidth="1"/>
     <col min="11" max="15" width="18" style="7" customWidth="1"/>
@@ -1978,163 +1981,164 @@
     <col min="19" max="19" width="11.6640625" style="7" customWidth="1"/>
     <col min="20" max="20" width="10.1640625" style="7" customWidth="1"/>
     <col min="21" max="21" width="14.5" style="7"/>
-    <col min="22" max="24" width="34" style="7" customWidth="1"/>
-    <col min="25" max="25" width="25" style="7" customWidth="1"/>
+    <col min="22" max="23" width="34" style="7" customWidth="1"/>
+    <col min="24" max="24" width="58.5" style="42" customWidth="1"/>
+    <col min="25" max="25" width="25" style="42" customWidth="1"/>
     <col min="26" max="26" width="28.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:26" s="2" customFormat="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="105">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5" customHeight="1">
+    <row r="3" spans="1:26" ht="75">
       <c r="A3" s="10"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2149,7 +2153,7 @@
       <c r="G3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="21" t="s">
         <v>38</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>115600</v>
       </c>
       <c r="P3" s="21"/>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="22" t="s">
         <v>39</v>
       </c>
       <c r="R3" s="21">
@@ -2189,18 +2193,18 @@
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="43.5" customHeight="1">
+    <row r="4" spans="1:26" ht="60">
       <c r="A4" s="10"/>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -2215,7 +2219,7 @@
       <c r="G4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="21" t="s">
         <v>46</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>38900</v>
       </c>
       <c r="P4" s="21"/>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="22" t="s">
         <v>47</v>
       </c>
       <c r="R4" s="21">
@@ -2255,16 +2259,16 @@
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" customHeight="1">
+    <row r="5" spans="1:26" ht="75">
       <c r="A5" s="10"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -2279,7 +2283,7 @@
       <c r="G5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="21" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>48100</v>
       </c>
       <c r="P5" s="21"/>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R5" s="21">
@@ -2319,18 +2323,18 @@
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="39"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="58.5" customHeight="1">
+    <row r="6" spans="1:26" ht="60">
       <c r="A6" s="10"/>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2345,7 +2349,7 @@
       <c r="G6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="21" t="s">
         <v>46</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>31400</v>
       </c>
       <c r="P6" s="21"/>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R6" s="21">
@@ -2385,18 +2389,18 @@
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="39"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="43.5" customHeight="1">
+    <row r="7" spans="1:26" ht="60">
       <c r="A7" s="10"/>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2411,7 +2415,7 @@
       <c r="G7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="21" t="s">
         <v>46</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>54800</v>
       </c>
       <c r="P7" s="21"/>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="22" t="s">
         <v>63</v>
       </c>
       <c r="R7" s="21">
@@ -2451,18 +2455,18 @@
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="8"/>
+      <c r="Y7" s="39"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="43.5" customHeight="1">
+    <row r="8" spans="1:26" ht="75">
       <c r="A8" s="10"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -2477,7 +2481,7 @@
       <c r="G8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="21" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>51700</v>
       </c>
       <c r="P8" s="21"/>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="22" t="s">
         <v>69</v>
       </c>
       <c r="R8" s="21">
@@ -2517,13 +2521,13 @@
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="43.5" customHeight="1">
+    <row r="9" spans="1:26" ht="75">
       <c r="A9" s="10"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>287</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2538,10 +2542,10 @@
       <c r="F9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="21" t="s">
         <v>73</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>75500</v>
       </c>
       <c r="P9" s="21"/>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="22" t="s">
         <v>74</v>
       </c>
       <c r="R9" s="21">
@@ -2581,18 +2585,18 @@
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="43.5" customHeight="1">
+    <row r="10" spans="1:26" ht="120">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -2607,7 +2611,7 @@
       <c r="G10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="39" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -2632,7 +2636,7 @@
         <v>45800</v>
       </c>
       <c r="P10" s="21"/>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R10" s="21">
@@ -2650,23 +2654,23 @@
       <c r="V10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W10" s="31" t="s">
+      <c r="W10" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Y10" s="39" t="s">
         <v>85</v>
       </c>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="43.5" customHeight="1">
+    <row r="11" spans="1:26" ht="75">
       <c r="A11" s="10"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2678,10 +2682,10 @@
       <c r="F11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="21" t="s">
         <v>46</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>47500</v>
       </c>
       <c r="P11" s="21"/>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R11" s="21">
@@ -2721,18 +2725,18 @@
       </c>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="39"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="43.5" customHeight="1">
+    <row r="12" spans="1:26" ht="75">
       <c r="A12" s="10"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2747,7 +2751,7 @@
       <c r="G12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="21" t="s">
         <v>73</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>86200</v>
       </c>
       <c r="P12" s="21"/>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="22" t="s">
         <v>94</v>
       </c>
       <c r="R12" s="21">
@@ -2787,20 +2791,20 @@
       </c>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="39"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="43.5" customHeight="1">
+    <row r="13" spans="1:26" ht="90">
       <c r="A13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -2815,7 +2819,7 @@
       <c r="G13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="39" t="s">
         <v>100</v>
       </c>
       <c r="I13" s="21" t="s">
@@ -2840,7 +2844,7 @@
         <v>40100</v>
       </c>
       <c r="P13" s="21"/>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" s="22" t="s">
         <v>101</v>
       </c>
       <c r="R13" s="21">
@@ -2858,25 +2862,25 @@
       <c r="V13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="W13" s="31" t="s">
+      <c r="W13" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="X13" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Y13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="Z13" s="31" t="s">
+      <c r="Z13" s="30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="43.5" customHeight="1">
+    <row r="14" spans="1:26" ht="75">
       <c r="A14" s="10"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -2891,7 +2895,7 @@
       <c r="G14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="21" t="s">
         <v>68</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>46900</v>
       </c>
       <c r="P14" s="21"/>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="22" t="s">
         <v>110</v>
       </c>
       <c r="R14" s="21">
@@ -2931,20 +2935,20 @@
       </c>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="39"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="43.5" customHeight="1">
+    <row r="15" spans="1:26" ht="90">
       <c r="A15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -2956,10 +2960,10 @@
       <c r="F15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="39" t="s">
         <v>115</v>
       </c>
       <c r="I15" s="21" t="s">
@@ -2984,7 +2988,7 @@
         <v>35300</v>
       </c>
       <c r="P15" s="21"/>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R15" s="21">
@@ -3002,21 +3006,21 @@
       <c r="V15" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="W15" s="31" t="s">
+      <c r="W15" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="X15" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="8"/>
+      <c r="Y15" s="39"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="43.5" customHeight="1">
+    <row r="16" spans="1:26" ht="75">
       <c r="A16" s="10"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3031,7 +3035,7 @@
       <c r="G16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="21" t="s">
         <v>68</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>57100</v>
       </c>
       <c r="P16" s="21"/>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="22" t="s">
         <v>94</v>
       </c>
       <c r="R16" s="21">
@@ -3071,13 +3075,13 @@
       </c>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="43.5" customHeight="1">
+    <row r="17" spans="1:26" ht="60">
       <c r="A17" s="10"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>295</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3095,7 +3099,7 @@
       <c r="G17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="21" t="s">
         <v>73</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>57800</v>
       </c>
       <c r="P17" s="21"/>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="22" t="s">
         <v>101</v>
       </c>
       <c r="R17" s="21">
@@ -3135,18 +3139,18 @@
       </c>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="8" t="s">
+      <c r="X17" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Y17" s="8"/>
+      <c r="Y17" s="39"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="43.5" customHeight="1">
+    <row r="18" spans="1:26" ht="75">
       <c r="A18" s="10"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -3161,7 +3165,7 @@
       <c r="G18" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="21" t="s">
         <v>46</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>26900</v>
       </c>
       <c r="P18" s="21"/>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="22" t="s">
         <v>39</v>
       </c>
       <c r="R18" s="21">
@@ -3201,15 +3205,15 @@
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="8" t="s">
+      <c r="X18" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="Y18" s="8"/>
+      <c r="Y18" s="39"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="43.5" customHeight="1">
+    <row r="19" spans="1:26" ht="75">
       <c r="A19" s="10"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>297</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3224,10 +3228,10 @@
       <c r="F19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="21" t="s">
         <v>73</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>79900</v>
       </c>
       <c r="P19" s="21"/>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="22" t="s">
         <v>74</v>
       </c>
       <c r="R19" s="21">
@@ -3267,16 +3271,16 @@
       </c>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="43.5" customHeight="1">
+    <row r="20" spans="1:26" ht="60">
       <c r="A20" s="10"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -3291,7 +3295,7 @@
       <c r="G20" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="21" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>46100</v>
       </c>
       <c r="P20" s="21"/>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R20" s="21">
@@ -3331,18 +3335,18 @@
       </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="Y20" s="8"/>
+      <c r="Y20" s="39"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="43.5" customHeight="1">
+    <row r="21" spans="1:26" ht="45">
       <c r="A21" s="10"/>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3357,7 +3361,7 @@
       <c r="G21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="21" t="s">
         <v>73</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>61800</v>
       </c>
       <c r="P21" s="21"/>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R21" s="21">
@@ -3397,15 +3401,15 @@
       </c>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="8" t="s">
+      <c r="X21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="Y21" s="8"/>
+      <c r="Y21" s="39"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="43.5" customHeight="1">
+    <row r="22" spans="1:26" ht="60">
       <c r="A22" s="10"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>300</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3420,10 +3424,10 @@
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="21" t="s">
         <v>73</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>80100</v>
       </c>
       <c r="P22" s="21"/>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R22" s="21">
@@ -3463,16 +3467,16 @@
       </c>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" ht="43.5" customHeight="1">
+    <row r="23" spans="1:26" ht="75">
       <c r="A23" s="10"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3487,7 +3491,7 @@
       <c r="G23" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="21" t="s">
         <v>68</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>29400</v>
       </c>
       <c r="P23" s="21"/>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="22" t="s">
         <v>69</v>
       </c>
       <c r="R23" s="21">
@@ -3527,15 +3531,15 @@
       </c>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="8" t="s">
+      <c r="X23" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="Y23" s="8"/>
+      <c r="Y23" s="39"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" ht="43.5" customHeight="1">
+    <row r="24" spans="1:26" ht="120">
       <c r="A24" s="10"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>311</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3550,10 +3554,10 @@
       <c r="F24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="39" t="s">
         <v>147</v>
       </c>
       <c r="I24" s="21" t="s">
@@ -3578,7 +3582,7 @@
         <v>136200</v>
       </c>
       <c r="P24" s="21"/>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="22" t="s">
         <v>149</v>
       </c>
       <c r="R24" s="21">
@@ -3597,16 +3601,16 @@
         <v>102</v>
       </c>
       <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" ht="43.5" customHeight="1">
+    <row r="25" spans="1:26" ht="75">
       <c r="A25" s="10"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>150</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -3621,7 +3625,7 @@
       <c r="G25" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="21" t="s">
         <v>148</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>92200</v>
       </c>
       <c r="P25" s="21"/>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R25" s="21">
@@ -3661,18 +3665,18 @@
       </c>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="8" t="s">
+      <c r="X25" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="Y25" s="8"/>
+      <c r="Y25" s="39"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="43.5" customHeight="1">
+    <row r="26" spans="1:26" ht="225">
       <c r="A26" s="10"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>154</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -3687,7 +3691,7 @@
       <c r="G26" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="21" t="s">
         <v>68</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>51900</v>
       </c>
       <c r="P26" s="21"/>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" s="22" t="s">
         <v>157</v>
       </c>
       <c r="R26" s="21">
@@ -3727,18 +3731,18 @@
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="8" t="s">
+      <c r="X26" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="Y26" s="8"/>
+      <c r="Y26" s="39"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="43.5" customHeight="1">
+    <row r="27" spans="1:26" ht="90">
       <c r="A27" s="10"/>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>158</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -3750,10 +3754,10 @@
       <c r="F27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="39" t="s">
         <v>161</v>
       </c>
       <c r="I27" s="21" t="s">
@@ -3778,7 +3782,7 @@
         <v>59300</v>
       </c>
       <c r="P27" s="21"/>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R27" s="21">
@@ -3796,23 +3800,23 @@
       <c r="V27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="W27" s="31" t="s">
+      <c r="W27" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="X27" s="8" t="s">
+      <c r="X27" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="Y27" s="8" t="s">
+      <c r="Y27" s="39" t="s">
         <v>163</v>
       </c>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="43.5" customHeight="1">
+    <row r="28" spans="1:26" ht="90">
       <c r="A28" s="10"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>164</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -3827,7 +3831,7 @@
       <c r="G28" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="39" t="s">
         <v>167</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -3852,7 +3856,7 @@
         <v>43900</v>
       </c>
       <c r="P28" s="21"/>
-      <c r="Q28" s="23" t="s">
+      <c r="Q28" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R28" s="21">
@@ -3870,21 +3874,21 @@
       <c r="V28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W28" s="31" t="s">
+      <c r="W28" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="X28" s="8" t="s">
+      <c r="X28" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="Y28" s="8"/>
+      <c r="Y28" s="39"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="43.5" customHeight="1">
+    <row r="29" spans="1:26" ht="75">
       <c r="A29" s="10"/>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -3899,7 +3903,7 @@
       <c r="G29" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="21" t="s">
         <v>73</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>77000</v>
       </c>
       <c r="P29" s="21"/>
-      <c r="Q29" s="23" t="s">
+      <c r="Q29" s="22" t="s">
         <v>157</v>
       </c>
       <c r="R29" s="21">
@@ -3939,18 +3943,18 @@
       </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="8" t="s">
+      <c r="X29" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="Y29" s="8"/>
+      <c r="Y29" s="39"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="43.5" customHeight="1">
+    <row r="30" spans="1:26" ht="75">
       <c r="A30" s="10"/>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="31" t="s">
         <v>172</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -3965,7 +3969,7 @@
       <c r="G30" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="21" t="s">
         <v>73</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>85100</v>
       </c>
       <c r="P30" s="21"/>
-      <c r="Q30" s="23" t="s">
+      <c r="Q30" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R30" s="21">
@@ -4005,18 +4009,18 @@
       </c>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="Y30" s="8"/>
+      <c r="Y30" s="39"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" ht="43.5" customHeight="1">
+    <row r="31" spans="1:26" ht="45">
       <c r="A31" s="10"/>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>175</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -4031,7 +4035,7 @@
       <c r="G31" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="21" t="s">
         <v>68</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>43300</v>
       </c>
       <c r="P31" s="21"/>
-      <c r="Q31" s="23" t="s">
+      <c r="Q31" s="22" t="s">
         <v>178</v>
       </c>
       <c r="R31" s="21">
@@ -4071,18 +4075,18 @@
       </c>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="Y31" s="8"/>
+      <c r="Y31" s="39"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="43.5" customHeight="1">
+    <row r="32" spans="1:26" ht="75">
       <c r="A32" s="10"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -4097,7 +4101,7 @@
       <c r="G32" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="21" t="s">
         <v>73</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>62700</v>
       </c>
       <c r="P32" s="21"/>
-      <c r="Q32" s="23" t="s">
+      <c r="Q32" s="22" t="s">
         <v>53</v>
       </c>
       <c r="R32" s="21">
@@ -4137,20 +4141,20 @@
       </c>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="Y32" s="8"/>
+      <c r="Y32" s="39"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="43" customHeight="1">
+    <row r="33" spans="1:26" ht="90">
       <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>183</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -4162,10 +4166,10 @@
       <c r="F33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="39" t="s">
         <v>185</v>
       </c>
       <c r="I33" s="21" t="s">
@@ -4190,7 +4194,7 @@
         <v>43400</v>
       </c>
       <c r="P33" s="21"/>
-      <c r="Q33" s="23" t="s">
+      <c r="Q33" s="22" t="s">
         <v>69</v>
       </c>
       <c r="R33" s="21">
@@ -4208,13 +4212,13 @@
       <c r="V33" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="W33" s="31" t="s">
+      <c r="W33" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="X33" s="8" t="s">
+      <c r="X33" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="39"/>
       <c r="Z33" s="8"/>
     </row>
   </sheetData>
@@ -4299,7 +4303,7 @@
       <c r="D1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4327,7 +4331,7 @@
       <c r="B3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -4355,7 +4359,7 @@
       <c r="B5" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="11"/>
@@ -4381,10 +4385,10 @@
       <c r="B7" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4398,7 +4402,7 @@
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="38" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4412,7 +4416,7 @@
       <c r="C9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4426,7 +4430,7 @@
       <c r="C10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4451,10 +4455,10 @@
       <c r="B12" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4465,7 +4469,7 @@
       <c r="B13" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -4683,25 +4687,25 @@
     <col min="4" max="16384" width="18" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="36" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="37" customFormat="1" ht="45">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:3" s="34" customFormat="1" ht="45">
+      <c r="A2" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4712,7 +4716,7 @@
       <c r="B3" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4723,7 +4727,7 @@
       <c r="B4" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4734,7 +4738,7 @@
       <c r="B5" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4745,7 +4749,7 @@
       <c r="B6" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4756,7 +4760,7 @@
       <c r="B7" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4767,7 +4771,7 @@
       <c r="B8" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4778,7 +4782,7 @@
       <c r="B9" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4789,7 +4793,7 @@
       <c r="B10" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4800,7 +4804,7 @@
       <c r="B11" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4811,7 +4815,7 @@
       <c r="B12" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4822,7 +4826,7 @@
       <c r="B13" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4833,7 +4837,7 @@
       <c r="B14" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4844,7 +4848,7 @@
       <c r="B15" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="35" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4855,7 +4859,7 @@
       <c r="B16" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="35" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4866,7 +4870,7 @@
       <c r="B17" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>253</v>
       </c>
     </row>

--- a/js/Jobs-Grid.xlsx
+++ b/js/Jobs-Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="310">
   <si>
     <t>Spotlight</t>
   </si>
@@ -611,12 +611,6 @@
   </si>
   <si>
     <t>What industry is this sponsor a part of?</t>
-  </si>
-  <si>
-    <t>HOTSTART</t>
-  </si>
-  <si>
-    <t>CHAS Health</t>
   </si>
   <si>
     <t>Inland Imaging</t>
@@ -1958,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="O22" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2052,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W1" s="24" t="s">
         <v>21</v>
@@ -2069,7 +2063,7 @@
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="105">
       <c r="A2" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28" t="s">
@@ -2081,7 +2075,7 @@
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>27</v>
@@ -2118,25 +2112,25 @@
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X2" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="X2" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>221</v>
-      </c>
       <c r="Z2" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="75">
       <c r="A3" s="10"/>
       <c r="B3" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>33</v>
@@ -2202,7 +2196,7 @@
     <row r="4" spans="1:26" ht="60">
       <c r="A4" s="10"/>
       <c r="B4" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>41</v>
@@ -2266,7 +2260,7 @@
     <row r="5" spans="1:26" ht="75">
       <c r="A5" s="10"/>
       <c r="B5" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>48</v>
@@ -2332,7 +2326,7 @@
     <row r="6" spans="1:26" ht="60">
       <c r="A6" s="10"/>
       <c r="B6" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>55</v>
@@ -2398,7 +2392,7 @@
     <row r="7" spans="1:26" ht="60">
       <c r="A7" s="10"/>
       <c r="B7" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>60</v>
@@ -2464,7 +2458,7 @@
     <row r="8" spans="1:26" ht="75">
       <c r="A8" s="10"/>
       <c r="B8" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>65</v>
@@ -2528,7 +2522,7 @@
     <row r="9" spans="1:26" ht="75">
       <c r="A9" s="10"/>
       <c r="B9" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>70</v>
@@ -2594,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>76</v>
@@ -2668,7 +2662,7 @@
     <row r="11" spans="1:26" ht="75">
       <c r="A11" s="10"/>
       <c r="B11" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>86</v>
@@ -2734,7 +2728,7 @@
     <row r="12" spans="1:26" ht="75">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>91</v>
@@ -2802,7 +2796,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>96</v>
@@ -2878,7 +2872,7 @@
     <row r="14" spans="1:26" ht="75">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>107</v>
@@ -2946,7 +2940,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>112</v>
@@ -3018,7 +3012,7 @@
     <row r="16" spans="1:26" ht="75">
       <c r="A16" s="10"/>
       <c r="B16" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>119</v>
@@ -3082,7 +3076,7 @@
     <row r="17" spans="1:26" ht="60">
       <c r="A17" s="10"/>
       <c r="B17" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>121</v>
@@ -3148,7 +3142,7 @@
     <row r="18" spans="1:26" ht="75">
       <c r="A18" s="10"/>
       <c r="B18" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>124</v>
@@ -3214,7 +3208,7 @@
     <row r="19" spans="1:26" ht="75">
       <c r="A19" s="10"/>
       <c r="B19" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>128</v>
@@ -3278,7 +3272,7 @@
     <row r="20" spans="1:26" ht="60">
       <c r="A20" s="10"/>
       <c r="B20" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>131</v>
@@ -3344,7 +3338,7 @@
     <row r="21" spans="1:26" ht="45">
       <c r="A21" s="10"/>
       <c r="B21" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>135</v>
@@ -3410,7 +3404,7 @@
     <row r="22" spans="1:26" ht="60">
       <c r="A22" s="10"/>
       <c r="B22" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>137</v>
@@ -3474,7 +3468,7 @@
     <row r="23" spans="1:26" ht="75">
       <c r="A23" s="10"/>
       <c r="B23" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>140</v>
@@ -3540,7 +3534,7 @@
     <row r="24" spans="1:26" ht="120">
       <c r="A24" s="10"/>
       <c r="B24" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>144</v>
@@ -3608,7 +3602,7 @@
     <row r="25" spans="1:26" ht="75">
       <c r="A25" s="10"/>
       <c r="B25" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>150</v>
@@ -3674,7 +3668,7 @@
     <row r="26" spans="1:26" ht="225">
       <c r="A26" s="10"/>
       <c r="B26" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>154</v>
@@ -3740,7 +3734,7 @@
     <row r="27" spans="1:26" ht="90">
       <c r="A27" s="10"/>
       <c r="B27" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>158</v>
@@ -3814,7 +3808,7 @@
     <row r="28" spans="1:26" ht="90">
       <c r="A28" s="10"/>
       <c r="B28" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>164</v>
@@ -3886,7 +3880,7 @@
     <row r="29" spans="1:26" ht="75">
       <c r="A29" s="10"/>
       <c r="B29" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>169</v>
@@ -3952,7 +3946,7 @@
     <row r="30" spans="1:26" ht="75">
       <c r="A30" s="10"/>
       <c r="B30" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>172</v>
@@ -4018,7 +4012,7 @@
     <row r="31" spans="1:26" ht="45">
       <c r="A31" s="10"/>
       <c r="B31" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>175</v>
@@ -4084,7 +4078,7 @@
     <row r="32" spans="1:26" ht="75">
       <c r="A32" s="10"/>
       <c r="B32" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>180</v>
@@ -4152,7 +4146,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>183</v>
@@ -4276,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4318,15 +4312,15 @@
         <v>194</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="60">
       <c r="A3" s="13" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>103</v>
@@ -4335,12 +4329,12 @@
         <v>97</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A4" s="13" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -4349,15 +4343,15 @@
         <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A5" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>97</v>
@@ -4366,30 +4360,30 @@
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A6" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A7" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4403,77 +4397,77 @@
         <v>77</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A9" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A10" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="60">
       <c r="A11" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A12" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1" ht="30">
       <c r="A13" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="15">
@@ -4481,21 +4475,21 @@
         <v>186</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="12" customFormat="1" ht="15">
       <c r="A15" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>56</v>
@@ -4689,194 +4683,194 @@
   <sheetData>
     <row r="1" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>223</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="34" customFormat="1" ht="45">
       <c r="A2" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
       <c r="A4" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
       <c r="A7" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
       <c r="C22" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/js/Jobs-Grid.xlsx
+++ b/js/Jobs-Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="309">
   <si>
     <t>Spotlight</t>
   </si>
@@ -938,9 +938,6 @@
   </si>
   <si>
     <t>Questions about ways that the skill is used</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>5620 S Regal St Suite 11 Spokane WA 99223,817 S Perry St unit b Spokane WA 99202,3919 N Maple St Spokane WA 99205,5921 N Market St Spokane WA 99208</t>
@@ -2046,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W1" s="24" t="s">
         <v>21</v>
@@ -2130,7 +2127,7 @@
     <row r="3" spans="1:26" ht="75">
       <c r="A3" s="10"/>
       <c r="B3" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>33</v>
@@ -2196,7 +2193,7 @@
     <row r="4" spans="1:26" ht="60">
       <c r="A4" s="10"/>
       <c r="B4" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>41</v>
@@ -2260,7 +2257,7 @@
     <row r="5" spans="1:26" ht="75">
       <c r="A5" s="10"/>
       <c r="B5" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>48</v>
@@ -2326,7 +2323,7 @@
     <row r="6" spans="1:26" ht="60">
       <c r="A6" s="10"/>
       <c r="B6" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>55</v>
@@ -2392,7 +2389,7 @@
     <row r="7" spans="1:26" ht="60">
       <c r="A7" s="10"/>
       <c r="B7" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>60</v>
@@ -2458,7 +2455,7 @@
     <row r="8" spans="1:26" ht="75">
       <c r="A8" s="10"/>
       <c r="B8" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>65</v>
@@ -2522,7 +2519,7 @@
     <row r="9" spans="1:26" ht="75">
       <c r="A9" s="10"/>
       <c r="B9" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>70</v>
@@ -2588,7 +2585,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>76</v>
@@ -2662,7 +2659,7 @@
     <row r="11" spans="1:26" ht="75">
       <c r="A11" s="10"/>
       <c r="B11" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>86</v>
@@ -2728,7 +2725,7 @@
     <row r="12" spans="1:26" ht="75">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>91</v>
@@ -2796,7 +2793,7 @@
         <v>75</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>96</v>
@@ -2872,7 +2869,7 @@
     <row r="14" spans="1:26" ht="75">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>107</v>
@@ -2940,7 +2937,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>112</v>
@@ -3012,7 +3009,7 @@
     <row r="16" spans="1:26" ht="75">
       <c r="A16" s="10"/>
       <c r="B16" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>119</v>
@@ -3076,7 +3073,7 @@
     <row r="17" spans="1:26" ht="60">
       <c r="A17" s="10"/>
       <c r="B17" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>121</v>
@@ -3142,7 +3139,7 @@
     <row r="18" spans="1:26" ht="75">
       <c r="A18" s="10"/>
       <c r="B18" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>124</v>
@@ -3208,7 +3205,7 @@
     <row r="19" spans="1:26" ht="75">
       <c r="A19" s="10"/>
       <c r="B19" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>128</v>
@@ -3272,7 +3269,7 @@
     <row r="20" spans="1:26" ht="60">
       <c r="A20" s="10"/>
       <c r="B20" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>131</v>
@@ -3338,7 +3335,7 @@
     <row r="21" spans="1:26" ht="45">
       <c r="A21" s="10"/>
       <c r="B21" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>135</v>
@@ -3404,7 +3401,7 @@
     <row r="22" spans="1:26" ht="60">
       <c r="A22" s="10"/>
       <c r="B22" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>137</v>
@@ -3468,7 +3465,7 @@
     <row r="23" spans="1:26" ht="75">
       <c r="A23" s="10"/>
       <c r="B23" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>140</v>
@@ -3534,7 +3531,7 @@
     <row r="24" spans="1:26" ht="120">
       <c r="A24" s="10"/>
       <c r="B24" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>144</v>
@@ -3602,7 +3599,7 @@
     <row r="25" spans="1:26" ht="75">
       <c r="A25" s="10"/>
       <c r="B25" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>150</v>
@@ -3668,7 +3665,7 @@
     <row r="26" spans="1:26" ht="225">
       <c r="A26" s="10"/>
       <c r="B26" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>154</v>
@@ -3734,7 +3731,7 @@
     <row r="27" spans="1:26" ht="90">
       <c r="A27" s="10"/>
       <c r="B27" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>158</v>
@@ -3808,7 +3805,7 @@
     <row r="28" spans="1:26" ht="90">
       <c r="A28" s="10"/>
       <c r="B28" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>164</v>
@@ -3880,7 +3877,7 @@
     <row r="29" spans="1:26" ht="75">
       <c r="A29" s="10"/>
       <c r="B29" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>169</v>
@@ -3946,7 +3943,7 @@
     <row r="30" spans="1:26" ht="75">
       <c r="A30" s="10"/>
       <c r="B30" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>172</v>
@@ -4012,7 +4009,7 @@
     <row r="31" spans="1:26" ht="45">
       <c r="A31" s="10"/>
       <c r="B31" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>175</v>
@@ -4078,7 +4075,7 @@
     <row r="32" spans="1:26" ht="75">
       <c r="A32" s="10"/>
       <c r="B32" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>180</v>
@@ -4146,7 +4143,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>183</v>
@@ -4270,7 +4267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4315,7 +4312,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="60">
@@ -4329,7 +4326,7 @@
         <v>97</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4343,7 +4340,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4369,7 +4366,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4383,7 +4380,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4397,7 +4394,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="15">
@@ -4411,7 +4408,7 @@
         <v>77</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="12" customFormat="1" ht="15">
@@ -4425,7 +4422,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="60">
@@ -4439,7 +4436,7 @@
         <v>77</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4453,7 +4450,7 @@
         <v>97</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="12" customFormat="1" ht="30">
@@ -4467,7 +4464,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="12" customFormat="1" ht="15">
@@ -4481,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="12" customFormat="1" ht="15">
@@ -4667,10 +4664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -4868,11 +4865,6 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="C22" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/js/Jobs-Grid.xlsx
+++ b/js/Jobs-Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1482,6 +1482,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -1949,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView topLeftCell="O22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="T6" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1973,9 +1976,9 @@
     <col min="20" max="20" width="10.1640625" style="7" customWidth="1"/>
     <col min="21" max="21" width="14.5" style="7"/>
     <col min="22" max="23" width="34" style="7" customWidth="1"/>
-    <col min="24" max="24" width="58.5" style="42" customWidth="1"/>
+    <col min="24" max="24" width="49.33203125" style="42" customWidth="1"/>
     <col min="25" max="25" width="25" style="42" customWidth="1"/>
-    <col min="26" max="26" width="28.5" style="7" customWidth="1"/>
+    <col min="26" max="26" width="34.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1">
@@ -2862,7 +2865,7 @@
       <c r="Y13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="Z13" s="30" t="s">
+      <c r="Z13" s="43" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4666,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/js/Jobs-Grid.xlsx
+++ b/js/Jobs-Grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31480" windowHeight="19800" tabRatio="500"/>
+    <workbookView xWindow="3340" yWindow="0" windowWidth="32160" windowHeight="19940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="337">
   <si>
     <t>Spotlight</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>AvgJobs</t>
-  </si>
-  <si>
-    <t>SponsorLink</t>
   </si>
   <si>
     <t>IndustryName</t>
@@ -495,10 +492,6 @@
     <t>WrittenCommunication,VerbalCommunication,Organization</t>
   </si>
   <si>
-    <t xml:space="preserve">A licensed practical nurse (LPN) is a nurse who cares for people who are sick, injured, convalescent, or disabled. LPNs work under the direction of physicians. Often, they provide basic bedside care. Many LPNs measure and record patients' vital signs such as weight, height, temperature, blood pressure, pulse, and respiratory rate. A licensed practical nurse (LPN) in much of the United States and most Canadian provinces is a nurse who cares for people who are sick, injured, convalescent, or disabled. LPNs work under the direction of registered nurses or physicians. They also prepare and give injections and enemas, monitor and also perform placement of catheters, dress wounds, and give alcohol rubs and massages. To help keep patients comfortable, they assist with bathing, dressing, and personal hygiene, moving in bed, standing, and walking. They might also feed patients who need help eating. Experienced LPNs may supervise nursing assistants and aides, and other LPNs.
-</t>
-  </si>
-  <si>
     <t>Typical shifts are 8 to 10 hours long but times vary. Shifts are usually 4 or 5 days a week but are not limited to weekdays.</t>
   </si>
   <si>
@@ -589,9 +582,6 @@
     <t>Wagstaff</t>
   </si>
   <si>
-    <t>https://www.wagstaff.com/Wagstaff.htm</t>
-  </si>
-  <si>
     <t>MacKay Manufacturing,HOTSTART,Itron, Inc.,Triumph Composite Systems,Itronix Corporation,Honeywell Electronic Materials,Jubilant HollisterStier,Travis Pattern &amp; Foundry Inc,Cascade NW Siding&amp; Windows LLC,Spokane Steel Foundry Co,CPM Development Corporation</t>
   </si>
   <si>
@@ -599,9 +589,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>Jobs</t>
   </si>
   <si>
     <t>Sponsor name</t>
@@ -703,34 +690,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The full copy text as is should appear on the page </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>335 characters max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each company name seperated by a comma with no spaces in between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>MUST BE IN THE SAME ORDER AS URLS IN THE NEXT COLUMN</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Each company URL seperated by a comma with no spaces </t>
     </r>
     <r>
@@ -772,20 +731,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>What jobs are they sponsoring?</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> (if multiple, separate by comma w/o space)</t>
-    </r>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -940,7 +885,211 @@
     <t>Questions about ways that the skill is used</t>
   </si>
   <si>
-    <t>5620 S Regal St Suite 11 Spokane WA 99223,817 S Perry St unit b Spokane WA 99202,3919 N Maple St Spokane WA 99205,5921 N Market St Spokane WA 99208</t>
+    <t>5723 0965 E Alki Ave Spokane Valley WA 99212</t>
+  </si>
+  <si>
+    <t>2003 Kootenai Health Way Coeur d’Alene ID 83814</t>
+  </si>
+  <si>
+    <t>10011 E Montgomery Dr Spokane Valley WA 99206</t>
+  </si>
+  <si>
+    <t>4003 E. Broadway Spokane WA 99202</t>
+  </si>
+  <si>
+    <t>8120 W. Sunset Hwy. Spokane WA 99224</t>
+  </si>
+  <si>
+    <t>1801 E Upriver Dr Spokan, WA 99207</t>
+  </si>
+  <si>
+    <t>4315 E Sprague Ave Spokane Valley WA 99212</t>
+  </si>
+  <si>
+    <t>3910 North Flora Road Spokane Valley WA  99216</t>
+  </si>
+  <si>
+    <t>Sponsors</t>
+  </si>
+  <si>
+    <t>./careers/Air_Traffic_Controller.html</t>
+  </si>
+  <si>
+    <t>./careers/Animal_Husbandry_Professional.html</t>
+  </si>
+  <si>
+    <t>./careers/Architectural_Drafter.html</t>
+  </si>
+  <si>
+    <t>./careers/careers/Bank_Teller.html</t>
+  </si>
+  <si>
+    <t>./careers/Bus_Driver.html</t>
+  </si>
+  <si>
+    <t>./careers/Carpenter.html</t>
+  </si>
+  <si>
+    <t>./careers/Civil_Engineer.html</t>
+  </si>
+  <si>
+    <t>./careers/CNC_Operator.html</t>
+  </si>
+  <si>
+    <t>./careers/Computer_User_Support_Specialists.html</t>
+  </si>
+  <si>
+    <t>./careers/Construction_Manager.html</t>
+  </si>
+  <si>
+    <t>./careers/Dental_Assistant.html</t>
+  </si>
+  <si>
+    <t>./careers/Diesel_Engine_Mechanic.html</t>
+  </si>
+  <si>
+    <t>./careers/Electrical_Assembler.html</t>
+  </si>
+  <si>
+    <t>./careers/Electrician.html</t>
+  </si>
+  <si>
+    <t>./careers/Fraud_Prevention_Specialist.html</t>
+  </si>
+  <si>
+    <t>./careers/Home_Health_Aide.html</t>
+  </si>
+  <si>
+    <t>./careers/Industrial_Engineer.html</t>
+  </si>
+  <si>
+    <t>./careers/Insurance_Sales_Agent.html</t>
+  </si>
+  <si>
+    <t>./careers/Loan_Officer.html</t>
+  </si>
+  <si>
+    <t>./careers/Mechanical_Engineer.html</t>
+  </si>
+  <si>
+    <t>./careers/Nursing_Assistant.html</t>
+  </si>
+  <si>
+    <t>./careers/Physical_Therapist.html</t>
+  </si>
+  <si>
+    <t>./careers/Practical_Nurse.html</t>
+  </si>
+  <si>
+    <t>./careers/Production_Supervisor.html</t>
+  </si>
+  <si>
+    <t>./careers/Quality_Inspection_Supervisor.html</t>
+  </si>
+  <si>
+    <t>./careers/Registered_Nurse.html</t>
+  </si>
+  <si>
+    <t>./careers/Software_Developer.html</t>
+  </si>
+  <si>
+    <t>./careers/Truck_Driver.html</t>
+  </si>
+  <si>
+    <t>./careers/Web_Developer.html</t>
+  </si>
+  <si>
+    <t>./careers/Welder.html</t>
+  </si>
+  <si>
+    <t>./careers/Nurse_Practitioner.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A licensed practical nurse (LPN) is a nurse who cares for people who are sick, injured, convalescent, or disabled. LPNs work under the direction of registered nurses or physicians. Often, they provide basic bedside care, give injections, and monitor vital signs. They assist with dressing, and personal hygiene, moving, and might also feed patients. Experienced LPNs may supervise nursing assistants, aides, and other LPNs.
+</t>
+  </si>
+  <si>
+    <t>The full copy text as is should appear on the page</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1ss5GryMRJc" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>The Production Manager provides organizational and technical supervision of supervisors, operators, and support staff. Production Managers are responsible for overseeing safety, product manufacturing, finished product quality, and material management for the manufacturing process, as well as employee training and development. They are responsible for ensuring efficiency is maintained and projects remain on schedule.</t>
+  </si>
+  <si>
+    <t>Production Manager</t>
+  </si>
+  <si>
+    <t>https://www.nwcarpenters.org/</t>
+  </si>
+  <si>
+    <t>PNWRCC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each company name seperated by a comma with no spaces in between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>MUST MATCH THE NAME ON THE SPONSORS SHEET</t>
+    </r>
+  </si>
+  <si>
+    <t>127 East Augusta Avenue Suite 103 Spokane Washington 99207</t>
+  </si>
+  <si>
+    <t>International Aerospace Coatings</t>
+  </si>
+  <si>
+    <t>https://www.iac.aero/</t>
+  </si>
+  <si>
+    <t>8510 West Electric Ave. Spokane WA 99224</t>
+  </si>
+  <si>
+    <t>NAC Architecture</t>
+  </si>
+  <si>
+    <t>https://www.nacarchitecture.com/</t>
+  </si>
+  <si>
+    <t>1203 W Riverside Ave Spokane WA 99201-1107</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SBYQo85o7UQ" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Motivation,Organization,ComputerSkills,Leadership</t>
+  </si>
+  <si>
+    <t>ComputerSkills,AttentionToDetail,Organization,VerbalCommunication</t>
+  </si>
+  <si>
+    <t>Radiographers, also known as radiologic technologists are healthcare professionals who specialize in the imaging of human anatomy for the diagnosis and treatment of pathology. Radiographers work in both public healthcare and private healthcare and can be physically located in any setting. The practice varies from country to country and can even vary between hospitals in the same country.</t>
+  </si>
+  <si>
+    <t>Average work days in a row</t>
+  </si>
+  <si>
+    <t>Average days off between shifts</t>
+  </si>
+  <si>
+    <t>Average length of shift</t>
+  </si>
+  <si>
+    <t>Average shifts are 12 hours for three weekdays. Weekend shifts often rotate.</t>
   </si>
   <si>
     <r>
@@ -953,141 +1102,65 @@
         <color theme="0"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>(if multiple, separate by comma w/o space)</t>
+      <t>(if multiple, separate by "~" w/o space)</t>
     </r>
   </si>
   <si>
-    <t>5723 0965 E Alki Ave Spokane Valley WA 99212</t>
-  </si>
-  <si>
-    <t>55053.0107 Spokane Valley WA 99216</t>
-  </si>
-  <si>
-    <t>2003 Kootenai Health Way Coeur d’Alene ID 83814</t>
-  </si>
-  <si>
-    <t>10011 E Montgomery Dr Spokane Valley WA 99206</t>
-  </si>
-  <si>
-    <t>4003 E. Broadway Spokane WA 99202</t>
-  </si>
-  <si>
-    <t>8120 W. Sunset Hwy. Spokane WA 99224</t>
-  </si>
-  <si>
-    <t>705 West 1st Avenue Spokane WA 99201-3909, 9601 E. Montgomery Ave. Spokane Valley WA, 3808 N Sullivan Road Bldg 27K Spokane Valley WA</t>
-  </si>
-  <si>
-    <t>1801 E Upriver Dr Spokan, WA 99207</t>
-  </si>
-  <si>
-    <t>4315 E Sprague Ave Spokane Valley WA 99212</t>
-  </si>
-  <si>
-    <t>3910 North Flora Road Spokane Valley WA  99216</t>
-  </si>
-  <si>
-    <t>Sponsors</t>
-  </si>
-  <si>
-    <t>./careers/Air_Traffic_Controller.html</t>
-  </si>
-  <si>
-    <t>./careers/Animal_Husbandry_Professional.html</t>
-  </si>
-  <si>
-    <t>./careers/Architectural_Drafter.html</t>
-  </si>
-  <si>
-    <t>./careers/careers/Bank_Teller.html</t>
-  </si>
-  <si>
-    <t>./careers/Bus_Driver.html</t>
-  </si>
-  <si>
-    <t>./careers/Carpenter.html</t>
-  </si>
-  <si>
-    <t>./careers/Civil_Engineer.html</t>
-  </si>
-  <si>
-    <t>./careers/CNC_Operator.html</t>
-  </si>
-  <si>
-    <t>./careers/Computer_User_Support_Specialists.html</t>
-  </si>
-  <si>
-    <t>./careers/Construction_Manager.html</t>
-  </si>
-  <si>
-    <t>./careers/Dental_Assistant.html</t>
-  </si>
-  <si>
-    <t>./careers/Diesel_Engine_Mechanic.html</t>
-  </si>
-  <si>
-    <t>./careers/Electrical_Assembler.html</t>
-  </si>
-  <si>
-    <t>./careers/Electrician.html</t>
-  </si>
-  <si>
-    <t>./careers/Fraud_Prevention_Specialist.html</t>
-  </si>
-  <si>
-    <t>./careers/Home_Health_Aide.html</t>
-  </si>
-  <si>
-    <t>./careers/Industrial_Engineer.html</t>
-  </si>
-  <si>
-    <t>./careers/Insurance_Sales_Agent.html</t>
-  </si>
-  <si>
-    <t>./careers/Loan_Officer.html</t>
-  </si>
-  <si>
-    <t>./careers/Mechanical_Engineer.html</t>
-  </si>
-  <si>
-    <t>./careers/Nursing_Assistant.html</t>
-  </si>
-  <si>
-    <t>./careers/Physical_Therapist.html</t>
-  </si>
-  <si>
-    <t>./careers/Practical_Nurse.html</t>
-  </si>
-  <si>
-    <t>./careers/Production_Supervisor.html</t>
-  </si>
-  <si>
-    <t>./careers/Quality_Inspection_Supervisor.html</t>
-  </si>
-  <si>
-    <t>./careers/Registered_Nurse.html</t>
-  </si>
-  <si>
-    <t>./careers/Software_Developer.html</t>
-  </si>
-  <si>
-    <t>./careers/Truck_Driver.html</t>
-  </si>
-  <si>
-    <t>./careers/Web_Developer.html</t>
-  </si>
-  <si>
-    <t>./careers/Welder.html</t>
-  </si>
-  <si>
-    <t>./careers/Nurse_Practitioner.html</t>
+    <t>705 West 1st Avenue Spokane WA 99201-3909</t>
+  </si>
+  <si>
+    <r>
+      <t>Coordinates with commas seperated by "~" and no spaces</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (ex. lat,long~lat,long)</t>
+    </r>
+  </si>
+  <si>
+    <t>717 W. Sprague Ave. Spokane, WA 99201~1601 Seltice Way Post Falls, ID 83854~218 Lakeside Ave. Coeur d'Alene, ID 83814~8050 N. Government Way Hayden, ID 83835</t>
+  </si>
+  <si>
+    <t>105 West 8th Avenue Suite 100C, 560E Spokane, WA 99204</t>
+  </si>
+  <si>
+    <t>203 N. Washington St., Suite 300 Spokane, WA 99201</t>
+  </si>
+  <si>
+    <t>MapLink</t>
+  </si>
+  <si>
+    <t>LatLong</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/Washington+Trust+Bank/@47.6937941,-117.3043986,10.39z</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Wagstaff+Inc/@47.742641,-117.2480274,10.56z/data=!4m5!3m4!1s0x5361de2d60304369:0x365199660637dbcc!8m2!3d47.6920948!4d-117.1727074</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Union+Pacific+Railroad+Co/@47.6889605,-117.3497863,11.65z/data=!4m5!3m4!1s0x549e21fdd95814d9:0xe272688ffc4fbd23!8m2!3d47.6575735!4d-117.34612</t>
+  </si>
+  <si>
+    <t>Link to full Google Map</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/EUgB36NltHc" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Providence,MultiCare,Eastern State Hospital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1186,6 +1259,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1234,7 +1313,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1366,8 +1445,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1468,9 +1595,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1486,8 +1610,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1618,6 +1776,54 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1950,38 +2156,38 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T6" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="68.83203125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="32.83203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="68.83203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" style="41" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" style="7" customWidth="1"/>
-    <col min="11" max="15" width="18" style="7" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="7" customWidth="1"/>
+    <col min="11" max="15" width="18" style="43" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="43" customWidth="1"/>
     <col min="17" max="17" width="33.6640625" style="7" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" style="7" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" style="7" customWidth="1"/>
     <col min="20" max="20" width="10.1640625" style="7" customWidth="1"/>
     <col min="21" max="21" width="14.5" style="7"/>
-    <col min="22" max="23" width="34" style="7" customWidth="1"/>
-    <col min="24" max="24" width="49.33203125" style="42" customWidth="1"/>
-    <col min="25" max="25" width="25" style="42" customWidth="1"/>
-    <col min="26" max="26" width="34.5" style="7" customWidth="1"/>
+    <col min="22" max="22" width="34" style="7" customWidth="1"/>
+    <col min="23" max="23" width="49.33203125" style="41" customWidth="1"/>
+    <col min="24" max="24" width="25" style="41" customWidth="1"/>
+    <col min="25" max="25" width="34.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1">
+    <row r="1" spans="1:25" s="2" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2046,110 +2252,110 @@
         <v>20</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="W1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="105">
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="105">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="H2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>320</v>
+      </c>
       <c r="U2" s="28"/>
       <c r="V2" s="29" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="75">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="75">
       <c r="A3" s="10"/>
       <c r="B3" s="30" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="J3" s="21">
         <v>3</v>
@@ -2171,7 +2377,7 @@
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="21">
         <v>8</v>
@@ -2186,36 +2392,35 @@
         <v>2</v>
       </c>
       <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" ht="60">
+      <c r="W3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" ht="60">
       <c r="A4" s="10"/>
       <c r="B4" s="30" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="J4" s="21">
         <v>1</v>
@@ -2237,7 +2442,7 @@
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="21">
         <v>10</v>
@@ -2252,34 +2457,33 @@
         <v>4</v>
       </c>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" ht="75">
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" ht="75">
       <c r="A5" s="10"/>
       <c r="B5" s="30" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="21">
         <v>3</v>
@@ -2301,7 +2505,7 @@
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5" s="21">
         <v>8</v>
@@ -2316,36 +2520,35 @@
         <v>6</v>
       </c>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="60">
+      <c r="W5" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" ht="60">
       <c r="A6" s="10"/>
       <c r="B6" s="30" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="21">
         <v>1</v>
@@ -2367,7 +2570,7 @@
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R6" s="21">
         <v>8</v>
@@ -2382,36 +2585,35 @@
         <v>60</v>
       </c>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="60">
+      <c r="W6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" ht="60">
       <c r="A7" s="10"/>
       <c r="B7" s="30" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="21">
         <v>1</v>
@@ -2433,7 +2635,7 @@
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R7" s="21">
         <v>6</v>
@@ -2448,36 +2650,35 @@
         <v>5</v>
       </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" ht="75">
+      <c r="W7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="75">
       <c r="A8" s="10"/>
       <c r="B8" s="30" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="J8" s="21">
         <v>2</v>
@@ -2499,7 +2700,7 @@
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R8" s="21">
         <v>8</v>
@@ -2514,34 +2715,33 @@
         <v>45</v>
       </c>
       <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="75">
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" ht="75">
       <c r="A9" s="10"/>
       <c r="B9" s="30" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="39" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="J9" s="21">
         <v>4</v>
@@ -2563,7 +2763,7 @@
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" s="21">
         <v>8</v>
@@ -2578,38 +2778,35 @@
         <v>22</v>
       </c>
       <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="120">
-      <c r="A10" s="10" t="s">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="59" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>80</v>
-      </c>
       <c r="I10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="21">
         <v>3</v>
@@ -2631,7 +2828,7 @@
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R10" s="21">
         <v>10</v>
@@ -2646,42 +2843,39 @@
         <v>22</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="Y10" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="75">
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="75">
       <c r="A11" s="10"/>
       <c r="B11" s="30" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
@@ -2703,7 +2897,7 @@
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R11" s="21">
         <v>8</v>
@@ -2718,36 +2912,35 @@
         <v>126</v>
       </c>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="75">
+      <c r="W11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" ht="75">
       <c r="A12" s="10"/>
       <c r="B12" s="30" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" s="21">
         <v>4</v>
@@ -2769,7 +2962,7 @@
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R12" s="21">
         <v>10</v>
@@ -2784,40 +2977,39 @@
         <v>22</v>
       </c>
       <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="39" t="s">
+      <c r="W12" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" ht="75">
+      <c r="A13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="90">
-      <c r="A13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="H13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>100</v>
-      </c>
       <c r="I13" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="21">
         <v>2</v>
@@ -2839,7 +3031,7 @@
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R13" s="21">
         <v>8</v>
@@ -2854,44 +3046,41 @@
         <v>21</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="X13" s="39" t="s">
+      <c r="X13" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="Y13" s="39" t="s">
+      <c r="Y13" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="Z13" s="43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="75">
+    </row>
+    <row r="14" spans="1:25" ht="75">
       <c r="A14" s="10"/>
       <c r="B14" s="30" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="21">
         <v>2</v>
@@ -2913,7 +3102,7 @@
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R14" s="21">
         <v>9</v>
@@ -2928,40 +3117,39 @@
         <v>32</v>
       </c>
       <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="39" t="s">
+      <c r="W14" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" ht="75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="90">
-      <c r="A15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="40" t="s">
+      <c r="H15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>115</v>
-      </c>
       <c r="I15" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="21">
         <v>1</v>
@@ -2983,7 +3171,7 @@
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R15" s="21">
         <v>10</v>
@@ -2998,40 +3186,37 @@
         <v>10</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W15" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="X15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="75">
+      <c r="X15" s="38"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="75">
       <c r="A16" s="10"/>
       <c r="B16" s="30" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="21">
         <v>2</v>
@@ -3053,7 +3238,7 @@
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R16" s="21">
         <v>8</v>
@@ -3068,34 +3253,33 @@
         <v>35</v>
       </c>
       <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="60">
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" ht="60">
       <c r="A17" s="10"/>
       <c r="B17" s="30" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="21">
         <v>4</v>
@@ -3117,7 +3301,7 @@
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R17" s="21">
         <v>8</v>
@@ -3132,36 +3316,35 @@
         <v>22</v>
       </c>
       <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" ht="75">
+      <c r="W17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="75">
       <c r="A18" s="10"/>
       <c r="B18" s="30" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C18" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="21">
         <v>1</v>
@@ -3183,7 +3366,7 @@
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R18" s="21">
         <v>8</v>
@@ -3198,36 +3381,35 @@
         <v>77</v>
       </c>
       <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="1:26" ht="75">
+      <c r="W18" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" ht="75">
       <c r="A19" s="10"/>
       <c r="B19" s="30" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="21">
         <v>4</v>
@@ -3249,7 +3431,7 @@
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R19" s="21">
         <v>8</v>
@@ -3264,34 +3446,33 @@
         <v>3</v>
       </c>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" spans="1:26" ht="60">
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" ht="60">
       <c r="A20" s="10"/>
       <c r="B20" s="30" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C20" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="21">
         <v>1</v>
@@ -3313,7 +3494,7 @@
       </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R20" s="21">
         <v>8</v>
@@ -3328,36 +3509,35 @@
         <v>71</v>
       </c>
       <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="1:26" ht="45">
+      <c r="W20" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" spans="1:25" ht="45">
       <c r="A21" s="10"/>
       <c r="B21" s="30" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C21" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="21">
         <v>4</v>
@@ -3379,7 +3559,7 @@
       </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R21" s="21">
         <v>8</v>
@@ -3394,36 +3574,35 @@
         <v>44</v>
       </c>
       <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="8"/>
-    </row>
-    <row r="22" spans="1:26" ht="60">
+      <c r="W21" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" spans="1:25" ht="60">
       <c r="A22" s="10"/>
       <c r="B22" s="30" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="21">
         <v>4</v>
@@ -3445,7 +3624,7 @@
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R22" s="21">
         <v>8</v>
@@ -3460,34 +3639,33 @@
         <v>24</v>
       </c>
       <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="1:26" ht="75">
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" spans="1:25" ht="75">
       <c r="A23" s="10"/>
       <c r="B23" s="30" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C23" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="21">
         <v>2</v>
@@ -3509,7 +3687,7 @@
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R23" s="21">
         <v>10</v>
@@ -3524,38 +3702,37 @@
         <v>125</v>
       </c>
       <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="1:26" ht="120">
+      <c r="W23" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="1:25" ht="105">
       <c r="A24" s="10"/>
       <c r="B24" s="30" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="H24" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="I24" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="J24" s="21">
         <v>5</v>
@@ -3577,7 +3754,7 @@
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R24" s="21">
         <v>12</v>
@@ -3592,36 +3769,37 @@
         <v>67</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="25" spans="1:26" ht="75">
+        <v>101</v>
+      </c>
+      <c r="W24" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="1:25" ht="75">
       <c r="A25" s="10"/>
       <c r="B25" s="30" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C25" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="21">
         <v>5</v>
@@ -3643,7 +3821,7 @@
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R25" s="21">
         <v>8</v>
@@ -3658,36 +3836,35 @@
         <v>91</v>
       </c>
       <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="8"/>
-    </row>
-    <row r="26" spans="1:26" ht="225">
+      <c r="W25" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" ht="105">
       <c r="A26" s="10"/>
       <c r="B26" s="30" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="F26" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="39"/>
+        <v>298</v>
+      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="21">
         <v>2</v>
@@ -3709,7 +3886,7 @@
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R26" s="21">
         <v>10</v>
@@ -3724,38 +3901,37 @@
         <v>102</v>
       </c>
       <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="8"/>
-    </row>
-    <row r="27" spans="1:26" ht="90">
+      <c r="W26" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" spans="1:25" ht="90">
       <c r="A27" s="10"/>
       <c r="B27" s="30" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C27" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>161</v>
-      </c>
       <c r="I27" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="21">
         <v>1</v>
@@ -3777,7 +3953,7 @@
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R27" s="21">
         <v>10</v>
@@ -3792,44 +3968,41 @@
         <v>33</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="X27" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y27" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z27" s="8"/>
-    </row>
-    <row r="28" spans="1:26" ht="90">
+        <v>115</v>
+      </c>
+      <c r="W27" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:25" ht="75">
       <c r="A28" s="10"/>
       <c r="B28" s="30" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C28" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>167</v>
-      </c>
       <c r="I28" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -3851,7 +4024,7 @@
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R28" s="21">
         <v>10</v>
@@ -3866,40 +4039,41 @@
         <v>18</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="W28" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="X28" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="8"/>
+    </row>
+    <row r="29" spans="1:25" ht="75">
+      <c r="A29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="8"/>
-    </row>
-    <row r="29" spans="1:26" ht="75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="F29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="I29" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29" s="21">
         <v>4</v>
@@ -3921,7 +4095,7 @@
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R29" s="21">
         <v>10</v>
@@ -3935,37 +4109,42 @@
       <c r="U29" s="21">
         <v>397</v>
       </c>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="8"/>
-    </row>
-    <row r="30" spans="1:26" ht="75">
+      <c r="V29" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="W29" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X29" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y29" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="75">
       <c r="A30" s="10"/>
       <c r="B30" s="30" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="F30" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="39"/>
+        <v>171</v>
+      </c>
+      <c r="H30" s="8"/>
       <c r="I30" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J30" s="21">
         <v>4</v>
@@ -3987,7 +4166,7 @@
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R30" s="21">
         <v>8</v>
@@ -4002,36 +4181,35 @@
         <v>85</v>
       </c>
       <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="8"/>
-    </row>
-    <row r="31" spans="1:26" ht="45">
+      <c r="W30" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" ht="45">
       <c r="A31" s="10"/>
       <c r="B31" s="30" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C31" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" s="21">
         <v>2</v>
@@ -4053,7 +4231,7 @@
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R31" s="21">
         <v>24</v>
@@ -4068,36 +4246,35 @@
         <v>300</v>
       </c>
       <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="1:26" ht="75">
+      <c r="W31" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:25" ht="75">
       <c r="A32" s="10"/>
       <c r="B32" s="30" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="F32" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" s="39"/>
+        <v>179</v>
+      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="21">
         <v>4</v>
@@ -4119,7 +4296,7 @@
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R32" s="21">
         <v>8</v>
@@ -4134,40 +4311,39 @@
         <v>22</v>
       </c>
       <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="39" t="s">
+      <c r="W32" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="1:25" ht="90">
+      <c r="A33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" ht="90">
-      <c r="A33" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="H33" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>185</v>
-      </c>
       <c r="I33" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J33" s="21">
         <v>2</v>
@@ -4189,7 +4365,7 @@
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R33" s="21">
         <v>10</v>
@@ -4204,16 +4380,151 @@
         <v>31</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="X33" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="8"/>
+        <v>184</v>
+      </c>
+      <c r="W33" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="1:25" s="45" customFormat="1" ht="90">
+      <c r="A34" s="26"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="21">
+        <v>4</v>
+      </c>
+      <c r="K34" s="37">
+        <v>51900</v>
+      </c>
+      <c r="L34" s="37">
+        <v>63500</v>
+      </c>
+      <c r="M34" s="37">
+        <v>109700</v>
+      </c>
+      <c r="N34" s="37">
+        <v>111700</v>
+      </c>
+      <c r="O34" s="37">
+        <v>93000</v>
+      </c>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" s="37">
+        <v>8</v>
+      </c>
+      <c r="S34" s="37">
+        <v>5</v>
+      </c>
+      <c r="T34" s="37">
+        <v>2</v>
+      </c>
+      <c r="U34" s="37">
+        <v>13</v>
+      </c>
+      <c r="V34" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="44"/>
+    </row>
+    <row r="35" spans="1:25" s="45" customFormat="1" ht="90">
+      <c r="A35" s="26"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="37">
+        <v>3</v>
+      </c>
+      <c r="K35" s="37">
+        <v>45100</v>
+      </c>
+      <c r="L35" s="37">
+        <v>46700</v>
+      </c>
+      <c r="M35" s="37">
+        <v>66500</v>
+      </c>
+      <c r="N35" s="37">
+        <v>71700</v>
+      </c>
+      <c r="O35" s="37">
+        <v>61400</v>
+      </c>
+      <c r="P35" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="R35" s="37">
+        <v>12</v>
+      </c>
+      <c r="S35" s="37">
+        <v>3</v>
+      </c>
+      <c r="T35" s="37">
+        <v>4</v>
+      </c>
+      <c r="U35" s="37">
+        <v>27</v>
+      </c>
+      <c r="V35" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="W35" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y35" s="42" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4225,36 +4536,32 @@
     <hyperlink ref="B8" r:id="rId6" display="https://adamerow.github.io/careerexplorenw/careers/Carpenter.html"/>
     <hyperlink ref="B9" r:id="rId7" display="https://adamerow.github.io/careerexplorenw/careers/Civil_Engineer.html"/>
     <hyperlink ref="B10" r:id="rId8" display="https://adamerow.github.io/careerexplorenw/careers/CNC_Operator.html"/>
-    <hyperlink ref="W10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://adamerow.github.io/careerexplorenw/careers/Computer_User_Support_Specialists.html"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://adamerow.github.io/careerexplorenw/careers/Construction_Manager.html"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://adamerow.github.io/careerexplorenw/careers/Dental_Assistant.html"/>
-    <hyperlink ref="W13" r:id="rId13"/>
-    <hyperlink ref="Z13" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15" display="https://adamerow.github.io/careerexplorenw/careers/Diesel_Engine_Mechanic.html"/>
-    <hyperlink ref="B15" r:id="rId16" display="https://adamerow.github.io/careerexplorenw/careers/Electrical_Assembler.html"/>
-    <hyperlink ref="W15" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18" display="https://adamerow.github.io/careerexplorenw/careers/Electrician.html"/>
-    <hyperlink ref="B17" r:id="rId19" display="https://adamerow.github.io/careerexplorenw/careers/Fraud_Prevention_Specialist.html"/>
-    <hyperlink ref="B18" r:id="rId20" display="https://adamerow.github.io/careerexplorenw/careers/Home_Health_Aide.html"/>
-    <hyperlink ref="B19" r:id="rId21" display="https://adamerow.github.io/careerexplorenw/careers/Industrial_Engineer.html"/>
-    <hyperlink ref="B20" r:id="rId22" display="https://adamerow.github.io/careerexplorenw/careers/Insurance_Sales_Agent.html"/>
-    <hyperlink ref="B21" r:id="rId23" display="https://adamerow.github.io/careerexplorenw/careers/Loan_Officer.html"/>
-    <hyperlink ref="B22" r:id="rId24" display="https://adamerow.github.io/careerexplorenw/careers/Mechanical_Engineer.html"/>
-    <hyperlink ref="B23" r:id="rId25" display="https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html"/>
-    <hyperlink ref="B25" r:id="rId26" display="https://adamerow.github.io/careerexplorenw/careers/Physical_Therapist.html"/>
-    <hyperlink ref="B26" r:id="rId27" display="https://adamerow.github.io/careerexplorenw/careers/Practical_Nurse.html"/>
-    <hyperlink ref="B27" r:id="rId28" display="https://adamerow.github.io/careerexplorenw/careers/Production_Supervisor.html"/>
-    <hyperlink ref="W27" r:id="rId29"/>
-    <hyperlink ref="B28" r:id="rId30" display="https://adamerow.github.io/careerexplorenw/careers/Quality_Inspection_Supervisor.html"/>
-    <hyperlink ref="W28" r:id="rId31"/>
-    <hyperlink ref="B29" r:id="rId32" display="https://adamerow.github.io/careerexplorenw/careers/Registered_Nurse.html"/>
-    <hyperlink ref="B30" r:id="rId33" display="https://adamerow.github.io/careerexplorenw/careers/Software_Developer.html"/>
-    <hyperlink ref="B31" r:id="rId34" display="https://adamerow.github.io/careerexplorenw/careers/Truck_Driver.html"/>
-    <hyperlink ref="B32" r:id="rId35" display="https://adamerow.github.io/careerexplorenw/careers/Web_Developer.html"/>
-    <hyperlink ref="B33" r:id="rId36" display="https://adamerow.github.io/careerexplorenw/careers/Welder.html"/>
-    <hyperlink ref="W33" r:id="rId37"/>
-    <hyperlink ref="B24" r:id="rId38" display="https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://adamerow.github.io/careerexplorenw/careers/Computer_User_Support_Specialists.html"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://adamerow.github.io/careerexplorenw/careers/Construction_Manager.html"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://adamerow.github.io/careerexplorenw/careers/Dental_Assistant.html"/>
+    <hyperlink ref="Y13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://adamerow.github.io/careerexplorenw/careers/Diesel_Engine_Mechanic.html"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://adamerow.github.io/careerexplorenw/careers/Electrical_Assembler.html"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://adamerow.github.io/careerexplorenw/careers/Electrician.html"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://adamerow.github.io/careerexplorenw/careers/Fraud_Prevention_Specialist.html"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://adamerow.github.io/careerexplorenw/careers/Home_Health_Aide.html"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://adamerow.github.io/careerexplorenw/careers/Industrial_Engineer.html"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://adamerow.github.io/careerexplorenw/careers/Insurance_Sales_Agent.html"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://adamerow.github.io/careerexplorenw/careers/Loan_Officer.html"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://adamerow.github.io/careerexplorenw/careers/Mechanical_Engineer.html"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html"/>
+    <hyperlink ref="B25" r:id="rId23" display="https://adamerow.github.io/careerexplorenw/careers/Physical_Therapist.html"/>
+    <hyperlink ref="B26" r:id="rId24" display="https://adamerow.github.io/careerexplorenw/careers/Practical_Nurse.html"/>
+    <hyperlink ref="B27" r:id="rId25" display="https://adamerow.github.io/careerexplorenw/careers/Production_Supervisor.html"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://adamerow.github.io/careerexplorenw/careers/Quality_Inspection_Supervisor.html"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://adamerow.github.io/careerexplorenw/careers/Registered_Nurse.html"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://adamerow.github.io/careerexplorenw/careers/Software_Developer.html"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://adamerow.github.io/careerexplorenw/careers/Truck_Driver.html"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://adamerow.github.io/careerexplorenw/careers/Web_Developer.html"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://adamerow.github.io/careerexplorenw/careers/Welder.html"/>
+    <hyperlink ref="B24" r:id="rId32" display="https://adamerow.github.io/careerexplorenw/careers/Nursing_Assistant.html"/>
+    <hyperlink ref="Y35" r:id="rId33"/>
+    <hyperlink ref="Y29" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4268,388 +4575,459 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28" style="20" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="45">
+      <c r="A2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A5" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="60">
-      <c r="A2" s="6" t="s">
+      <c r="B5" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="18">
+      <c r="A7" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A8" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A9" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A10" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1" ht="24">
+      <c r="A12" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A13" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A14" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B14" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A15" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="30">
+      <c r="A16" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B16" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="15">
+      <c r="A17" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="36">
+      <c r="A18" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="60">
-      <c r="A3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="30">
-      <c r="A4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="30">
-      <c r="A5" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="15">
-      <c r="A6" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="30">
-      <c r="A7" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="30">
-      <c r="A8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="15">
-      <c r="A9" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="15">
-      <c r="A10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="60">
-      <c r="A11" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="30">
-      <c r="A12" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" ht="15">
-      <c r="A14" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" ht="15">
-      <c r="A15" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A16" s="15"/>
-      <c r="C16" s="19"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A17" s="15"/>
-      <c r="C17" s="19"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A18" s="15"/>
-      <c r="C18" s="19"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A19" s="15"/>
-      <c r="C19" s="19"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A20" s="15"/>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="48" customFormat="1" ht="13">
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="13">
+      <c r="A20" s="47"/>
       <c r="C20" s="19"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A21" s="15"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="13">
+      <c r="A21" s="47"/>
       <c r="C21" s="19"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="13">
-      <c r="A22" s="15"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="13">
+      <c r="A22" s="47"/>
       <c r="C22" s="19"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A23" s="15"/>
       <c r="C23" s="19"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A24" s="15"/>
       <c r="C24" s="19"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A25" s="15"/>
       <c r="C25" s="19"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A26" s="15"/>
       <c r="C26" s="19"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A27" s="15"/>
       <c r="C27" s="19"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A28" s="15"/>
       <c r="C28" s="19"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A29" s="15"/>
       <c r="C29" s="19"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A30" s="15"/>
       <c r="C30" s="19"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A31" s="15"/>
       <c r="C31" s="19"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="13">
       <c r="A32" s="15"/>
       <c r="C32" s="19"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A33" s="15"/>
       <c r="C33" s="19"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A34" s="15"/>
       <c r="C34" s="19"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A35" s="15"/>
       <c r="C35" s="19"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A36" s="15"/>
       <c r="C36" s="19"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A37" s="15"/>
       <c r="C37" s="19"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A38" s="15"/>
       <c r="C38" s="19"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A39" s="15"/>
       <c r="C39" s="19"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A40" s="15"/>
       <c r="C40" s="19"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A41" s="15"/>
       <c r="C41" s="19"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A42" s="15"/>
       <c r="C42" s="19"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A43" s="15"/>
       <c r="C43" s="19"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A44" s="15"/>
       <c r="C44" s="19"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A45" s="15"/>
       <c r="C45" s="19"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="13">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" ht="13">
       <c r="A46" s="15"/>
       <c r="C46" s="19"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1" ht="13">
+      <c r="A47" s="15"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" ht="13">
+      <c r="A48" s="15"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" ht="13">
+      <c r="A49" s="15"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:F15">
@@ -4683,189 +5061,189 @@
   <sheetData>
     <row r="1" spans="1:3" s="33" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="34" customFormat="1" ht="45">
       <c r="A2" s="34" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
       <c r="A4" s="12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
       <c r="A7" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
       <c r="A12" s="12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
       <c r="A13" s="12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30">
       <c r="A15" s="12" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
       <c r="A17" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
